--- a/data/Subset1_WithDialogActs/Math CZ1 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math CZ1 transcript.xlsx_with_dialog_acts.xlsx
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5795,12 +5795,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7273,12 +7273,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7609,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8239,12 +8239,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9121,12 +9121,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9415,12 +9415,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9499,12 +9499,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9709,12 +9709,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9835,12 +9835,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9877,12 +9877,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10801,12 +10801,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10843,12 +10843,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11729,12 +11729,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11813,12 +11813,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12027,12 +12027,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12157,12 +12157,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12241,12 +12241,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12371,12 +12371,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13563,12 +13563,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15083,12 +15083,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15251,12 +15251,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15335,12 +15335,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15717,12 +15717,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15759,12 +15759,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15843,12 +15843,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16145,12 +16145,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16821,12 +16821,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16863,12 +16863,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17329,12 +17329,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17371,12 +17371,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17837,12 +17837,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18215,12 +18215,12 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18257,12 +18257,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18425,12 +18425,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18677,12 +18677,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19017,12 +19017,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19789,12 +19789,12 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20763,12 +20763,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21061,12 +21061,12 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22157,12 +22157,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22913,12 +22913,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23081,12 +23081,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23685,12 +23685,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23727,12 +23727,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23811,12 +23811,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23983,12 +23983,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24109,12 +24109,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25079,12 +25079,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28031,12 +28031,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28157,12 +28157,12 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28413,12 +28413,12 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
